--- a/preprocessing/probeGeometries/CED_H7_2X32.xlsx
+++ b/preprocessing/probeGeometries/CED_H7_2X32.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Toolboxes\buzcodeMV\preprocessing\probeGeometries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valeg\Dropbox\Toolboxes\buzcodeMV\preprocessing\probeGeometries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6511EBF-304F-4D41-B27A-4A226876B5A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D0279F-2E5E-46E8-B492-281D6DA39519}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15460" yWindow="2190" windowWidth="18320" windowHeight="15510" tabRatio="937" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="937" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normal layout" sheetId="1" r:id="rId1"/>
@@ -867,13 +867,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="13.1328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="126" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +895,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:20" ht="56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="54" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,7 +928,7 @@
       </c>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -970,7 +973,7 @@
       </c>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1015,7 +1018,7 @@
       </c>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -1060,7 +1063,7 @@
       </c>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -1105,7 +1108,7 @@
       </c>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1151,7 +1154,7 @@
       <c r="O7" s="8"/>
       <c r="S7" s="42"/>
     </row>
-    <row r="8" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1197,7 +1200,7 @@
       <c r="O8" s="8"/>
       <c r="S8" s="42"/>
     </row>
-    <row r="9" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -1243,7 +1246,7 @@
       <c r="O9" s="8"/>
       <c r="S9" s="42"/>
     </row>
-    <row r="10" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1289,7 +1292,7 @@
       <c r="O10" s="8"/>
       <c r="S10" s="42"/>
     </row>
-    <row r="11" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -1335,7 +1338,7 @@
       <c r="O11" s="8"/>
       <c r="S11" s="42"/>
     </row>
-    <row r="12" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -1381,7 +1384,7 @@
       <c r="O12" s="8"/>
       <c r="S12" s="42"/>
     </row>
-    <row r="13" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -1427,7 +1430,7 @@
       <c r="O13" s="8"/>
       <c r="S13" s="42"/>
     </row>
-    <row r="14" spans="1:20" s="40" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="40" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A14" s="33">
         <v>12</v>
       </c>
@@ -1478,7 +1481,7 @@
       <c r="S14" s="42"/>
       <c r="T14"/>
     </row>
-    <row r="15" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -1524,7 +1527,7 @@
       <c r="O15" s="8"/>
       <c r="S15" s="42"/>
     </row>
-    <row r="16" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -1570,7 +1573,7 @@
       <c r="O16" s="8"/>
       <c r="S16" s="42"/>
     </row>
-    <row r="17" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -1616,7 +1619,7 @@
       <c r="O17" s="8"/>
       <c r="S17" s="42"/>
     </row>
-    <row r="18" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1662,7 +1665,7 @@
       <c r="O18" s="8"/>
       <c r="S18" s="42"/>
     </row>
-    <row r="19" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -1708,7 +1711,7 @@
       <c r="O19" s="8"/>
       <c r="S19" s="42"/>
     </row>
-    <row r="20" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1754,7 +1757,7 @@
       <c r="O20" s="8"/>
       <c r="S20" s="42"/>
     </row>
-    <row r="21" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1800,7 +1803,7 @@
       <c r="O21" s="8"/>
       <c r="S21" s="42"/>
     </row>
-    <row r="22" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -1846,7 +1849,7 @@
       <c r="O22" s="8"/>
       <c r="S22" s="42"/>
     </row>
-    <row r="23" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -1891,7 +1894,7 @@
       </c>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -1936,7 +1939,7 @@
       </c>
       <c r="O24" s="8"/>
     </row>
-    <row r="25" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>23</v>
       </c>
@@ -1981,7 +1984,7 @@
       </c>
       <c r="O25" s="8"/>
     </row>
-    <row r="26" spans="1:20" s="40" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" s="40" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A26" s="33">
         <v>24</v>
       </c>
@@ -2033,7 +2036,7 @@
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
     </row>
-    <row r="27" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>25</v>
       </c>
@@ -2078,7 +2081,7 @@
       </c>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>26</v>
       </c>
@@ -2123,7 +2126,7 @@
       </c>
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>27</v>
       </c>
@@ -2168,7 +2171,7 @@
       </c>
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>28</v>
       </c>
@@ -2213,7 +2216,7 @@
       </c>
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>29</v>
       </c>
@@ -2258,7 +2261,7 @@
       </c>
       <c r="O31" s="8"/>
     </row>
-    <row r="32" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>30</v>
       </c>
@@ -2303,7 +2306,7 @@
       </c>
       <c r="O32" s="8"/>
     </row>
-    <row r="33" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>31</v>
       </c>
@@ -2348,7 +2351,7 @@
       </c>
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>32</v>
       </c>
@@ -2393,7 +2396,7 @@
       </c>
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>33</v>
       </c>
@@ -2438,7 +2441,7 @@
       </c>
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>34</v>
       </c>
@@ -2483,7 +2486,7 @@
       </c>
       <c r="O36" s="8"/>
     </row>
-    <row r="37" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>35</v>
       </c>
@@ -2528,7 +2531,7 @@
       </c>
       <c r="O37" s="8"/>
     </row>
-    <row r="38" spans="1:20" s="40" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" s="40" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A38" s="33">
         <v>36</v>
       </c>
@@ -2580,7 +2583,7 @@
       <c r="S38" s="36"/>
       <c r="T38" s="36"/>
     </row>
-    <row r="39" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>37</v>
       </c>
@@ -2625,7 +2628,7 @@
       </c>
       <c r="O39" s="8"/>
     </row>
-    <row r="40" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>38</v>
       </c>
@@ -2670,7 +2673,7 @@
       </c>
       <c r="O40" s="8"/>
     </row>
-    <row r="41" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>39</v>
       </c>
@@ -2715,7 +2718,7 @@
       </c>
       <c r="O41" s="8"/>
     </row>
-    <row r="42" spans="1:20" s="40" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" s="40" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A42" s="33">
         <v>40</v>
       </c>
@@ -2767,7 +2770,7 @@
       <c r="S42" s="36"/>
       <c r="T42" s="36"/>
     </row>
-    <row r="43" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>41</v>
       </c>
@@ -2812,7 +2815,7 @@
       </c>
       <c r="O43" s="8"/>
     </row>
-    <row r="44" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A44" s="9">
         <v>42</v>
       </c>
@@ -2857,7 +2860,7 @@
       </c>
       <c r="O44" s="8"/>
     </row>
-    <row r="45" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
         <v>43</v>
       </c>
@@ -2902,7 +2905,7 @@
       </c>
       <c r="O45" s="8"/>
     </row>
-    <row r="46" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A46" s="9">
         <v>44</v>
       </c>
@@ -2947,7 +2950,7 @@
       </c>
       <c r="O46" s="8"/>
     </row>
-    <row r="47" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A47" s="9">
         <v>45</v>
       </c>
@@ -2992,7 +2995,7 @@
       </c>
       <c r="O47" s="8"/>
     </row>
-    <row r="48" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A48" s="9">
         <v>46</v>
       </c>
@@ -3037,7 +3040,7 @@
       </c>
       <c r="O48" s="8"/>
     </row>
-    <row r="49" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A49" s="9">
         <v>47</v>
       </c>
@@ -3082,7 +3085,7 @@
       </c>
       <c r="O49" s="8"/>
     </row>
-    <row r="50" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A50" s="9">
         <v>48</v>
       </c>
@@ -3127,7 +3130,7 @@
       </c>
       <c r="O50" s="8"/>
     </row>
-    <row r="51" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A51" s="9">
         <v>49</v>
       </c>
@@ -3172,7 +3175,7 @@
       </c>
       <c r="O51" s="8"/>
     </row>
-    <row r="52" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A52" s="9">
         <v>50</v>
       </c>
@@ -3217,7 +3220,7 @@
       </c>
       <c r="O52" s="8"/>
     </row>
-    <row r="53" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A53" s="9">
         <v>51</v>
       </c>
@@ -3262,7 +3265,7 @@
       </c>
       <c r="O53" s="8"/>
     </row>
-    <row r="54" spans="1:20" s="40" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" s="40" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A54" s="33">
         <v>52</v>
       </c>
@@ -3314,7 +3317,7 @@
       <c r="S54" s="36"/>
       <c r="T54" s="36"/>
     </row>
-    <row r="55" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A55" s="9">
         <v>53</v>
       </c>
@@ -3359,7 +3362,7 @@
       </c>
       <c r="O55" s="8"/>
     </row>
-    <row r="56" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A56" s="9">
         <v>54</v>
       </c>
@@ -3404,7 +3407,7 @@
       </c>
       <c r="O56" s="8"/>
     </row>
-    <row r="57" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A57" s="9">
         <v>55</v>
       </c>
@@ -3449,7 +3452,7 @@
       </c>
       <c r="O57" s="8"/>
     </row>
-    <row r="58" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
         <v>56</v>
       </c>
@@ -3494,7 +3497,7 @@
       </c>
       <c r="O58" s="8"/>
     </row>
-    <row r="59" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A59" s="9">
         <v>57</v>
       </c>
@@ -3539,7 +3542,7 @@
       </c>
       <c r="O59" s="8"/>
     </row>
-    <row r="60" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A60" s="9">
         <v>58</v>
       </c>
@@ -3584,7 +3587,7 @@
       </c>
       <c r="O60" s="8"/>
     </row>
-    <row r="61" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A61" s="9">
         <v>59</v>
       </c>
@@ -3629,7 +3632,7 @@
       </c>
       <c r="O61" s="8"/>
     </row>
-    <row r="62" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A62" s="9">
         <v>60</v>
       </c>
@@ -3674,7 +3677,7 @@
       </c>
       <c r="O62" s="8"/>
     </row>
-    <row r="63" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A63" s="9">
         <v>61</v>
       </c>
@@ -3719,7 +3722,7 @@
       </c>
       <c r="O63" s="8"/>
     </row>
-    <row r="64" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A64" s="9">
         <v>62</v>
       </c>
@@ -3764,7 +3767,7 @@
       </c>
       <c r="O64" s="8"/>
     </row>
-    <row r="65" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A65" s="9">
         <v>63</v>
       </c>
@@ -3809,7 +3812,7 @@
       </c>
       <c r="O65" s="8"/>
     </row>
-    <row r="66" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A66" s="9">
         <v>64</v>
       </c>
@@ -3854,12 +3857,12 @@
       </c>
       <c r="O66" s="8"/>
     </row>
-    <row r="67" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="L67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:22" ht="56" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -3883,7 +3886,7 @@
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
     </row>
-    <row r="69" spans="1:22" ht="98" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A69" s="12" t="s">
         <v>15</v>
       </c>
@@ -3911,7 +3914,7 @@
       <c r="S69" s="15"/>
       <c r="T69" s="15"/>
     </row>
-    <row r="70" spans="1:22" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="17" t="s">
         <v>18</v>
       </c>
@@ -3948,7 +3951,7 @@
       <c r="U70" s="12"/>
       <c r="V70" s="12"/>
     </row>
-    <row r="71" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A71" s="17" t="s">
         <v>24</v>
       </c>
@@ -3987,7 +3990,7 @@
       <c r="U71" s="12"/>
       <c r="V71" s="12"/>
     </row>
-    <row r="72" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A72" s="20">
         <v>46</v>
       </c>
@@ -4026,7 +4029,7 @@
       <c r="U72" s="23"/>
       <c r="V72" s="23"/>
     </row>
-    <row r="73" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A73" s="20">
         <v>44</v>
       </c>
@@ -4069,7 +4072,7 @@
       <c r="U73" s="23"/>
       <c r="V73" s="23"/>
     </row>
-    <row r="74" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A74" s="20">
         <v>42</v>
       </c>
@@ -4112,7 +4115,7 @@
       <c r="U74" s="23"/>
       <c r="V74" s="23"/>
     </row>
-    <row r="75" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A75" s="20">
         <v>40</v>
       </c>
@@ -4155,7 +4158,7 @@
       <c r="U75" s="23"/>
       <c r="V75" s="23"/>
     </row>
-    <row r="76" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A76" s="20">
         <v>38</v>
       </c>
@@ -4198,7 +4201,7 @@
       <c r="U76" s="23"/>
       <c r="V76" s="23"/>
     </row>
-    <row r="77" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A77" s="20">
         <v>36</v>
       </c>
@@ -4241,7 +4244,7 @@
       <c r="U77" s="23"/>
       <c r="V77" s="23"/>
     </row>
-    <row r="78" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A78" s="20">
         <v>34</v>
       </c>
@@ -4284,7 +4287,7 @@
       <c r="U78" s="23"/>
       <c r="V78" s="23"/>
     </row>
-    <row r="79" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A79" s="20">
         <v>32</v>
       </c>
@@ -4327,7 +4330,7 @@
       <c r="U79" s="23"/>
       <c r="V79" s="23"/>
     </row>
-    <row r="80" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A80" s="20">
         <v>30</v>
       </c>
@@ -4370,7 +4373,7 @@
       <c r="U80" s="23"/>
       <c r="V80" s="23"/>
     </row>
-    <row r="81" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A81" s="20">
         <v>28</v>
       </c>
@@ -4413,7 +4416,7 @@
       <c r="U81" s="23"/>
       <c r="V81" s="23"/>
     </row>
-    <row r="82" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A82" s="20">
         <v>26</v>
       </c>
@@ -4456,7 +4459,7 @@
       <c r="U82" s="23"/>
       <c r="V82" s="23"/>
     </row>
-    <row r="83" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A83" s="20">
         <v>24</v>
       </c>
@@ -4499,7 +4502,7 @@
       <c r="U83" s="23"/>
       <c r="V83" s="23"/>
     </row>
-    <row r="84" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A84" s="20">
         <v>22</v>
       </c>
@@ -4542,7 +4545,7 @@
       <c r="U84" s="23"/>
       <c r="V84" s="23"/>
     </row>
-    <row r="85" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A85" s="20">
         <v>20</v>
       </c>
@@ -4585,7 +4588,7 @@
       <c r="U85" s="23"/>
       <c r="V85" s="23"/>
     </row>
-    <row r="86" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A86" s="20">
         <v>18</v>
       </c>
@@ -4628,7 +4631,7 @@
       <c r="U86" s="23"/>
       <c r="V86" s="23"/>
     </row>
-    <row r="87" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A87" s="20">
         <v>16</v>
       </c>
@@ -4671,7 +4674,7 @@
       <c r="U87" s="23"/>
       <c r="V87" s="23"/>
     </row>
-    <row r="88" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A88" s="17" t="s">
         <v>27</v>
       </c>
@@ -4710,7 +4713,7 @@
       <c r="U88" s="12"/>
       <c r="V88" s="12"/>
     </row>
-    <row r="89" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="44" t="s">
         <v>29</v>
       </c>
@@ -4722,7 +4725,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -4742,7 +4745,7 @@
       <c r="S90" s="11"/>
       <c r="T90" s="11"/>
     </row>
-    <row r="91" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="45" t="s">
         <v>30</v>
       </c>
@@ -4764,7 +4767,7 @@
       <c r="S91" s="15"/>
       <c r="T91" s="15"/>
     </row>
-    <row r="92" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
         <v>31</v>
       </c>
@@ -4781,7 +4784,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A93" s="26">
         <f t="shared" ref="A93:B108" si="17">A72</f>
         <v>46</v>
@@ -4801,7 +4804,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A94" s="10">
         <f t="shared" si="17"/>
         <v>44</v>
@@ -4821,7 +4824,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A95" s="30">
         <f t="shared" si="17"/>
         <v>42</v>
@@ -4841,7 +4844,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A96" s="30">
         <f t="shared" si="17"/>
         <v>40</v>
@@ -4861,7 +4864,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A97" s="30">
         <f t="shared" si="17"/>
         <v>38</v>
@@ -4882,7 +4885,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A98" s="30">
         <f t="shared" si="17"/>
         <v>36</v>
@@ -4902,7 +4905,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A99" s="30">
         <f t="shared" si="17"/>
         <v>34</v>
@@ -4922,7 +4925,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A100" s="30">
         <f t="shared" si="17"/>
         <v>32</v>
@@ -4942,7 +4945,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A101" s="30">
         <f t="shared" si="17"/>
         <v>30</v>
@@ -4962,7 +4965,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A102" s="30">
         <f t="shared" si="17"/>
         <v>28</v>
@@ -4982,7 +4985,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A103" s="30">
         <f t="shared" si="17"/>
         <v>26</v>
@@ -5002,7 +5005,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A104" s="30">
         <f t="shared" si="17"/>
         <v>24</v>
@@ -5022,7 +5025,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A105" s="26">
         <f t="shared" si="17"/>
         <v>22</v>
@@ -5043,7 +5046,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
     </row>
-    <row r="106" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <f t="shared" si="17"/>
         <v>20</v>
@@ -5064,7 +5067,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
     </row>
-    <row r="107" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A107" s="10">
         <f t="shared" si="17"/>
         <v>18</v>
@@ -5085,7 +5088,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A108" s="26">
         <f t="shared" si="17"/>
         <v>16</v>
@@ -5106,7 +5109,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
     </row>
-    <row r="109" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <f t="shared" ref="A109:A124" si="19">E72</f>
         <v>47</v>
@@ -5127,7 +5130,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
     </row>
-    <row r="110" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <f t="shared" si="19"/>
         <v>45</v>
@@ -5148,7 +5151,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <f t="shared" si="19"/>
         <v>43</v>
@@ -5169,7 +5172,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <f t="shared" si="19"/>
         <v>41</v>
@@ -5190,7 +5193,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <f t="shared" si="19"/>
         <v>39</v>
@@ -5211,7 +5214,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <f t="shared" si="19"/>
         <v>37</v>
@@ -5232,7 +5235,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <f t="shared" si="19"/>
         <v>35</v>
@@ -5253,7 +5256,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
     </row>
-    <row r="116" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <f t="shared" si="19"/>
         <v>33</v>
@@ -5274,7 +5277,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <f t="shared" si="19"/>
         <v>31</v>
@@ -5295,7 +5298,7 @@
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <f t="shared" si="19"/>
         <v>29</v>
@@ -5316,7 +5319,7 @@
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
     </row>
-    <row r="119" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <f t="shared" si="19"/>
         <v>27</v>
@@ -5337,7 +5340,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <f t="shared" si="19"/>
         <v>25</v>
@@ -5358,7 +5361,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
     </row>
-    <row r="121" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <f t="shared" si="19"/>
         <v>23</v>
@@ -5379,7 +5382,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
     </row>
-    <row r="122" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <f t="shared" si="19"/>
         <v>21</v>
@@ -5400,7 +5403,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
     </row>
-    <row r="123" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <f t="shared" si="19"/>
         <v>19</v>
@@ -5421,7 +5424,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
     </row>
-    <row r="124" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <f t="shared" si="19"/>
         <v>17</v>
@@ -5442,7 +5445,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
     </row>
-    <row r="125" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <f t="shared" ref="A125:A140" si="22">G72</f>
         <v>49</v>
@@ -5463,7 +5466,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
     </row>
-    <row r="126" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <f t="shared" si="22"/>
         <v>51</v>
@@ -5484,7 +5487,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <f t="shared" si="22"/>
         <v>53</v>
@@ -5505,7 +5508,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
     </row>
-    <row r="128" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <f t="shared" si="22"/>
         <v>55</v>
@@ -5526,7 +5529,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
     </row>
-    <row r="129" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <f t="shared" si="22"/>
         <v>57</v>
@@ -5547,7 +5550,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
     </row>
-    <row r="130" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <f t="shared" si="22"/>
         <v>59</v>
@@ -5568,7 +5571,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
     </row>
-    <row r="131" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <f t="shared" si="22"/>
         <v>61</v>
@@ -5589,7 +5592,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
     </row>
-    <row r="132" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <f t="shared" si="22"/>
         <v>63</v>
@@ -5610,7 +5613,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
     </row>
-    <row r="133" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -5631,7 +5634,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
     </row>
-    <row r="134" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <f t="shared" si="22"/>
         <v>3</v>
@@ -5652,7 +5655,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
     </row>
-    <row r="135" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <f t="shared" si="22"/>
         <v>5</v>
@@ -5673,7 +5676,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
     </row>
-    <row r="136" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <f t="shared" si="22"/>
         <v>7</v>
@@ -5694,7 +5697,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
     </row>
-    <row r="137" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <f t="shared" si="22"/>
         <v>9</v>
@@ -5715,7 +5718,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
     </row>
-    <row r="138" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <f t="shared" si="22"/>
         <v>11</v>
@@ -5736,7 +5739,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
     </row>
-    <row r="139" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <f t="shared" si="22"/>
         <v>13</v>
@@ -5757,7 +5760,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
     </row>
-    <row r="140" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <f t="shared" si="22"/>
         <v>15</v>
@@ -5778,7 +5781,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
     </row>
-    <row r="141" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
         <f t="shared" ref="A141:A156" si="25">J72</f>
         <v>48</v>
@@ -5799,7 +5802,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
     </row>
-    <row r="142" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <f t="shared" si="25"/>
         <v>50</v>
@@ -5820,7 +5823,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
     </row>
-    <row r="143" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
         <f t="shared" si="25"/>
         <v>52</v>
@@ -5841,7 +5844,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
     </row>
-    <row r="144" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
         <f t="shared" si="25"/>
         <v>54</v>
@@ -5862,7 +5865,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
     </row>
-    <row r="145" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
         <f t="shared" si="25"/>
         <v>56</v>
@@ -5883,7 +5886,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
     </row>
-    <row r="146" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
         <f t="shared" si="25"/>
         <v>58</v>
@@ -5904,7 +5907,7 @@
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
     </row>
-    <row r="147" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
         <f t="shared" si="25"/>
         <v>60</v>
@@ -5925,7 +5928,7 @@
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
     </row>
-    <row r="148" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
         <f t="shared" si="25"/>
         <v>62</v>
@@ -5946,7 +5949,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
     </row>
-    <row r="149" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -5967,7 +5970,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
     </row>
-    <row r="150" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
         <f t="shared" si="25"/>
         <v>2</v>
@@ -5988,7 +5991,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
     </row>
-    <row r="151" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
         <f t="shared" si="25"/>
         <v>4</v>
@@ -6009,7 +6012,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
     </row>
-    <row r="152" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
         <f t="shared" si="25"/>
         <v>6</v>
@@ -6030,7 +6033,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
     </row>
-    <row r="153" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
         <f t="shared" si="25"/>
         <v>8</v>
@@ -6051,7 +6054,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
     </row>
-    <row r="154" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
         <f t="shared" si="25"/>
         <v>10</v>
@@ -6072,7 +6075,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
     </row>
-    <row r="155" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
         <f t="shared" si="25"/>
         <v>12</v>
@@ -6093,7 +6096,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
     </row>
-    <row r="156" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
         <f t="shared" si="25"/>
         <v>14</v>
